--- a/ProtoFileGenerator/proto_definitions.xlsx
+++ b/ProtoFileGenerator/proto_definitions.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Sparta\APOMServer\ProtoFileGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8292AE2-160A-419A-99F1-2F5682B99607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43878A22-2A99-41FA-8464-57D0F0DD1316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="645" windowWidth="37035" windowHeight="20355" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Messages" sheetId="1" r:id="rId1"/>
-    <sheet name="AI Scripts" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="Contents" sheetId="3" r:id="rId2"/>
+    <sheet name="AI Scripts" sheetId="2" r:id="rId3"/>
+    <sheet name="Structs" sheetId="6" r:id="rId4"/>
+    <sheet name="Etc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="98">
   <si>
     <t>MessageName</t>
   </si>
@@ -295,10 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM_BOSS_PHASE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>enum</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -326,7 +325,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>ENUM_BOSS_TEST</t>
+    <t>Position</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>posZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC_BOSS_PHASE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 고유 ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_PHASE</t>
+  </si>
+  <si>
+    <t>현재 보스의 페이즈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currentPhase </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>currentHp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 현재 체력</t>
+  </si>
+  <si>
+    <t>maxHp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스의 최대 체력</t>
+  </si>
+  <si>
+    <t>targetPlayerID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 플레이어의 고유 ID</t>
+  </si>
+  <si>
+    <t>보스가 이동해야 하는 목표 위치</t>
+  </si>
+  <si>
+    <t>targetMovementPos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>distanceToPlayer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어와의 현재 거리</t>
+  </si>
+  <si>
+    <t>currentAnimation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 재생되어야하는 애니메이션 정보</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS_PHASE</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -699,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,403 +942,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>37</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>64</v>
-      </c>
-      <c r="B47" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>51</v>
-      </c>
-      <c r="B51" t="s">
-        <v>48</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>63</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1270,19 +949,382 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D855BCE1-5701-4923-B770-175E32F8F8C0}">
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA41E0C3-33FC-4727-B2DD-4CB408971A04}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="35.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -1301,86 +1343,331 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
       <c r="D2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
         <v>69</v>
       </c>
-      <c r="B3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F83CCD-C06A-4A6A-AE0B-89643DA4CE6B}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" t="s">
         <v>77</v>
       </c>
-      <c r="B8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" t="s">
-        <v>74</v>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDB9213-0882-462B-B15C-C1CFF2055437}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
